--- a/00_doc/data.xlsx
+++ b/00_doc/data.xlsx
@@ -1406,9 +1406,7 @@
       <c:valAx>
         <c:axId val="597512840"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -11935,7 +11933,7 @@
   <dimension ref="B2:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/00_doc/data.xlsx
+++ b/00_doc/data.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9230858-5AB5-4281-8FF9-D0E6588E3C06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8985" yWindow="1365" windowWidth="19725" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,7 +280,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -295,6 +296,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -11693,10 +11702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q13"/>
+  <dimension ref="C1:AI13"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11704,46 +11713,59 @@
     <col min="1" max="41" width="3.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4"/>
+    <row r="1" spans="3:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="3:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T2" s="15"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="18"/>
+      <c r="AI2" s="19"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="7"/>
+    <row r="3" spans="3:35" x14ac:dyDescent="0.4">
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="4"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="20"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+    <row r="4" spans="3:35" x14ac:dyDescent="0.4">
+      <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -11756,12 +11778,26 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="20"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+    <row r="5" spans="3:35" x14ac:dyDescent="0.4">
+      <c r="C5" s="5"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -11774,12 +11810,26 @@
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="20"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+    <row r="6" spans="3:35" x14ac:dyDescent="0.4">
+      <c r="C6" s="5"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -11792,12 +11842,26 @@
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="6"/>
+      <c r="AE6" s="6"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="20"/>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+    <row r="7" spans="3:35" x14ac:dyDescent="0.4">
+      <c r="C7" s="5"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -11810,12 +11874,26 @@
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+      <c r="AG7" s="6"/>
+      <c r="AH7" s="6"/>
+      <c r="AI7" s="20"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+    <row r="8" spans="3:35" x14ac:dyDescent="0.4">
+      <c r="C8" s="5"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -11828,12 +11906,26 @@
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="6"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="20"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+    <row r="9" spans="3:35" x14ac:dyDescent="0.4">
+      <c r="C9" s="5"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -11846,12 +11938,26 @@
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+      <c r="AG9" s="6"/>
+      <c r="AH9" s="6"/>
+      <c r="AI9" s="20"/>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+    <row r="10" spans="3:35" x14ac:dyDescent="0.4">
+      <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -11864,12 +11970,26 @@
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+      <c r="AG10" s="6"/>
+      <c r="AH10" s="6"/>
+      <c r="AI10" s="20"/>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+    <row r="11" spans="3:35" x14ac:dyDescent="0.4">
+      <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -11882,44 +12002,73 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="20"/>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="7"/>
+    <row r="12" spans="3:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+      <c r="AG12" s="6"/>
+      <c r="AH12" s="6"/>
+      <c r="AI12" s="20"/>
     </row>
-    <row r="13" spans="2:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10"/>
+    <row r="13" spans="3:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T13" s="17"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
+      <c r="AH13" s="22"/>
+      <c r="AI13" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11932,7 +12081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02CBC9F-88E8-46F5-9577-64BB67EB3215}">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>

--- a/00_doc/data.xlsx
+++ b/00_doc/data.xlsx
@@ -3,18 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9230858-5AB5-4281-8FF9-D0E6588E3C06}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FB961B-1CEF-41E9-B9B5-D340C79E4E86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="1365" windowWidth="19725" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="All" sheetId="4" r:id="rId2"/>
-    <sheet name="JavaScript" sheetId="9" r:id="rId3"/>
-    <sheet name="C++" sheetId="10" r:id="rId4"/>
-    <sheet name="OpenMP" sheetId="11" r:id="rId5"/>
-    <sheet name="CUDA" sheetId="12" r:id="rId6"/>
-    <sheet name="CUDA_OPT" sheetId="8" r:id="rId7"/>
+    <sheet name="20190511_Jetson" sheetId="14" r:id="rId2"/>
+    <sheet name="20190511_PC" sheetId="16" r:id="rId3"/>
+    <sheet name="20190511_CUDA_OPT2" sheetId="13" r:id="rId4"/>
+    <sheet name="All" sheetId="4" r:id="rId5"/>
+    <sheet name="JavaScript" sheetId="9" r:id="rId6"/>
+    <sheet name="C++" sheetId="10" r:id="rId7"/>
+    <sheet name="OpenMP" sheetId="11" r:id="rId8"/>
+    <sheet name="CUDA" sheetId="12" r:id="rId9"/>
+    <sheet name="CUDA_OPT" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="37">
   <si>
     <t>JavaScript</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +72,134 @@
   </si>
   <si>
     <t>Generation Per Second</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pinned Memory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zero Copy Memory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SharedMemory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALGORITHM_1</t>
+  </si>
+  <si>
+    <t>ALGORITHM_2</t>
+  </si>
+  <si>
+    <t>ALGORITHM_2_STREAM</t>
+  </si>
+  <si>
+    <t>ALGORITHM_3_STREAM</t>
+  </si>
+  <si>
+    <t>ALGORITHM_3_REPEAT</t>
+  </si>
+  <si>
+    <t>SharedMemory
+ + Stream</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALGORITHM_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Normal without padding</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.9,0.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.9,0.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.4,0.6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC, 8192x8192</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GPU占有メモリ、GPU共有メモリ</t>
+    <rPh sb="3" eb="5">
+      <t>センユウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キョウユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.3,0.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期使用量</t>
+    <rPh sb="0" eb="2">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shared Memory
++ Stream
++ No Copy(h2d) unless update</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shared Memory
++ No Copy(h2d) unless update
++ No Copy(d2h) while skipping (10 times)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jetson Nano, 4096x4096</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0だと速い</t>
+    <rPh sb="3" eb="4">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1があると速い</t>
+    <rPh sb="5" eb="6">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変わらず</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ALGORITHM_3_STREAM + USE_PINNED_MEMORY</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -280,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -304,6 +435,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -399,88 +534,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JavaScript</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>All!$C$3:$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512x512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192x8192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>All!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-75B2-45CE-8244-F422C68F3458}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>All!$B$5</c:f>
+              <c:f>'20190511_Jetson'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -501,7 +559,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$C$3:$G$3</c:f>
+              <c:f>'20190511_Jetson'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -524,40 +582,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$5:$G$5</c:f>
+              <c:f>'20190511_Jetson'!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.35</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-75B2-45CE-8244-F422C68F3458}"/>
+              <c16:uniqueId val="{00000001-46A2-4B21-9996-C68414241439}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$B$6</c:f>
+              <c:f>'20190511_Jetson'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -578,7 +636,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$C$3:$G$3</c:f>
+              <c:f>'20190511_Jetson'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -601,40 +659,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$6:$G$6</c:f>
+              <c:f>'20190511_Jetson'!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19.61</c:v>
+                  <c:v>4.9000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-75B2-45CE-8244-F422C68F3458}"/>
+              <c16:uniqueId val="{00000002-46A2-4B21-9996-C68414241439}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$B$7</c:f>
+              <c:f>'20190511_Jetson'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -655,7 +713,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$C$3:$G$3</c:f>
+              <c:f>'20190511_Jetson'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -678,40 +736,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$7:$G$7</c:f>
+              <c:f>'20190511_Jetson'!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.92</c:v>
+                  <c:v>8.1999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.18</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-75B2-45CE-8244-F422C68F3458}"/>
+              <c16:uniqueId val="{00000003-46A2-4B21-9996-C68414241439}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$B$8</c:f>
+              <c:f>'20190511_Jetson'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -732,7 +790,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$C$3:$G$3</c:f>
+              <c:f>'20190511_Jetson'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -755,7 +813,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$8:$G$8</c:f>
+              <c:f>'20190511_Jetson'!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -763,23 +821,23 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43.48</c:v>
+                  <c:v>8.6999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-75B2-45CE-8244-F422C68F3458}"/>
+              <c16:uniqueId val="{00000004-46A2-4B21-9996-C68414241439}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -976,7 +1034,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ja-JP"/>
@@ -1058,7 +1116,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$B$4</c:f>
+              <c:f>CUDA!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1079,13 +1137,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$F$3:$G$3</c:f>
+              <c:f>CUDA!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4096x4096</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -1093,14 +1160,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$G$4</c:f>
+              <c:f>CUDA!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.63</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1108,7 +1184,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D7E7-4E92-AA3B-D5B7F71EAAE4}"/>
+              <c16:uniqueId val="{00000000-523A-4153-8192-1BCEFE8C80D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1117,7 +1193,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$B$5</c:f>
+              <c:f>CUDA!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1138,13 +1214,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$F$3:$G$3</c:f>
+              <c:f>CUDA!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4096x4096</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -1152,14 +1237,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$5:$G$5</c:f>
+              <c:f>CUDA!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5.35</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1167,7 +1261,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D7E7-4E92-AA3B-D5B7F71EAAE4}"/>
+              <c16:uniqueId val="{00000001-523A-4153-8192-1BCEFE8C80D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1176,7 +1270,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$B$6</c:f>
+              <c:f>CUDA!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1197,13 +1291,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$F$3:$G$3</c:f>
+              <c:f>CUDA!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4096x4096</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -1211,14 +1314,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$6:$G$6</c:f>
+              <c:f>CUDA!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>19.61</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1226,7 +1338,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D7E7-4E92-AA3B-D5B7F71EAAE4}"/>
+              <c16:uniqueId val="{00000002-523A-4153-8192-1BCEFE8C80D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1235,7 +1347,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$B$7</c:f>
+              <c:f>CUDA!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1256,13 +1368,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$F$3:$G$3</c:f>
+              <c:f>CUDA!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4096x4096</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -1270,14 +1391,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$7:$G$7</c:f>
+              <c:f>CUDA!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>76.92</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>18.18</c:v>
                 </c:pt>
               </c:numCache>
@@ -1285,7 +1415,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D7E7-4E92-AA3B-D5B7F71EAAE4}"/>
+              <c16:uniqueId val="{00000003-523A-4153-8192-1BCEFE8C80D7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1294,7 +1424,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>All!$B$8</c:f>
+              <c:f>CUDA!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1315,13 +1445,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>All!$F$3:$G$3</c:f>
+              <c:f>CUDA!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4096x4096</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -1329,7 +1468,1780 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$8:$G$8</c:f>
+              <c:f>CUDA!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-523A-4153-8192-1BCEFE8C80D7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="597509888"/>
+        <c:axId val="597512840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="597509888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597512840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="597512840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597509888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Generation Per Second</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA!$F$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E741-4EF9-AD3E-6AAF5FE7E792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA!$F$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E741-4EF9-AD3E-6AAF5FE7E792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA!$F$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>19.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E741-4EF9-AD3E-6AAF5FE7E792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA!$F$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>76.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E741-4EF9-AD3E-6AAF5FE7E792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA + Optimization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA!$F$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E741-4EF9-AD3E-6AAF5FE7E792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="597509888"/>
+        <c:axId val="597512840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="597509888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597512840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="597512840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597509888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Generation Per Second</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA_OPT!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA_OPT!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA_OPT!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BFF-4887-BAE4-64992A57FD3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA_OPT!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA_OPT!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA_OPT!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7BFF-4887-BAE4-64992A57FD3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA_OPT!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA_OPT!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA_OPT!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.61</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7BFF-4887-BAE4-64992A57FD3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA_OPT!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA_OPT!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA_OPT!$C$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7BFF-4887-BAE4-64992A57FD3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA_OPT!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA + Optimization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA_OPT!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA_OPT!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7BFF-4887-BAE4-64992A57FD3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="597509888"/>
+        <c:axId val="597512840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="597509888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597512840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="597512840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597509888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Generation Per Second</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA_OPT!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA_OPT!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA_OPT!$F$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70CE-41EF-92C3-D0CF96640928}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA_OPT!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA_OPT!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA_OPT!$F$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>5.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-70CE-41EF-92C3-D0CF96640928}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA_OPT!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA_OPT!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA_OPT!$F$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>19.61</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-70CE-41EF-92C3-D0CF96640928}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA_OPT!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA_OPT!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA_OPT!$F$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>76.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-70CE-41EF-92C3-D0CF96640928}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>CUDA_OPT!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA + Optimization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>CUDA_OPT!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>CUDA_OPT!$F$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1344,7 +3256,513 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D7E7-4E92-AA3B-D5B7F71EAAE4}"/>
+              <c16:uniqueId val="{00000004-70CE-41EF-92C3-D0CF96640928}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="597509888"/>
+        <c:axId val="597512840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="597509888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597512840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="597512840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597509888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Generation Per Second</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20190511_Jetson'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'20190511_Jetson'!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20190511_Jetson'!$F$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7ECE-4560-97A5-30FFA17E926F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20190511_Jetson'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'20190511_Jetson'!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20190511_Jetson'!$F$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7ECE-4560-97A5-30FFA17E926F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20190511_Jetson'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'20190511_Jetson'!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20190511_Jetson'!$F$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7ECE-4560-97A5-30FFA17E926F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20190511_Jetson'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA + Optimization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'20190511_Jetson'!$F$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'20190511_Jetson'!$F$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7ECE-4560-97A5-30FFA17E926F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1619,88 +4037,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>JavaScript!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JavaScript</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>JavaScript!$C$3:$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512x512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192x8192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>JavaScript!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DDB3-46FC-9239-FFCEE828D2B4}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>JavaScript!$B$5</c:f>
+              <c:f>'20190511_PC'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1721,7 +4062,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>JavaScript!$C$3:$G$3</c:f>
+              <c:f>'20190511_PC'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1744,25 +4085,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JavaScript!$C$5:$G$5</c:f>
+              <c:f>'20190511_PC'!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DDB3-46FC-9239-FFCEE828D2B4}"/>
+              <c16:uniqueId val="{00000000-97CC-40CD-9774-0FFA78087D57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>JavaScript!$B$6</c:f>
+              <c:f>'20190511_PC'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1783,7 +4139,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>JavaScript!$C$3:$G$3</c:f>
+              <c:f>'20190511_PC'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1806,25 +4162,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JavaScript!$C$6:$G$6</c:f>
+              <c:f>'20190511_PC'!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DDB3-46FC-9239-FFCEE828D2B4}"/>
+              <c16:uniqueId val="{00000001-97CC-40CD-9774-0FFA78087D57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>JavaScript!$B$7</c:f>
+              <c:f>'20190511_PC'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1845,7 +4216,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>JavaScript!$C$3:$G$3</c:f>
+              <c:f>'20190511_PC'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1868,25 +4239,40 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JavaScript!$C$7:$G$7</c:f>
+              <c:f>'20190511_PC'!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DDB3-46FC-9239-FFCEE828D2B4}"/>
+              <c16:uniqueId val="{00000002-97CC-40CD-9774-0FFA78087D57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>JavaScript!$B$8</c:f>
+              <c:f>'20190511_PC'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1907,7 +4293,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>JavaScript!$C$3:$G$3</c:f>
+              <c:f>'20190511_PC'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1930,16 +4316,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>JavaScript!$C$8:$G$8</c:f>
+              <c:f>'20190511_PC'!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DDB3-46FC-9239-FFCEE828D2B4}"/>
+              <c16:uniqueId val="{00000003-97CC-40CD-9774-0FFA78087D57}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2214,88 +4615,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'C++'!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JavaScript</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'C++'!$C$3:$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>512x512</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8192x8192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'C++'!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0525-4113-AA37-94D34F7F001C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'C++'!$B$5</c:f>
+              <c:f>'20190511_PC'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2316,22 +4640,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'C++'!$C$3:$G$3</c:f>
+              <c:f>'20190511_PC'!$F$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>512x512</c:v>
+                  <c:v>4096x4096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -2339,40 +4654,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'C++'!$C$5:$G$5</c:f>
+              <c:f>'20190511_PC'!$F$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0525-4113-AA37-94D34F7F001C}"/>
+              <c16:uniqueId val="{00000000-1609-4F44-89CF-9385D21F232C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'C++'!$B$6</c:f>
+              <c:f>'20190511_PC'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2393,22 +4699,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'C++'!$C$3:$G$3</c:f>
+              <c:f>'20190511_PC'!$F$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>512x512</c:v>
+                  <c:v>4096x4096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -2416,25 +4713,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'C++'!$C$6:$G$6</c:f>
+              <c:f>'20190511_PC'!$F$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0525-4113-AA37-94D34F7F001C}"/>
+              <c16:uniqueId val="{00000001-1609-4F44-89CF-9385D21F232C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'C++'!$B$7</c:f>
+              <c:f>'20190511_PC'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2455,22 +4758,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'C++'!$C$3:$G$3</c:f>
+              <c:f>'20190511_PC'!$F$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>512x512</c:v>
+                  <c:v>4096x4096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -2478,25 +4772,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'C++'!$C$7:$G$7</c:f>
+              <c:f>'20190511_PC'!$F$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0525-4113-AA37-94D34F7F001C}"/>
+              <c16:uniqueId val="{00000002-1609-4F44-89CF-9385D21F232C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'C++'!$B$8</c:f>
+              <c:f>'20190511_PC'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2517,22 +4817,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'C++'!$C$3:$G$3</c:f>
+              <c:f>'20190511_PC'!$F$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>512x512</c:v>
+                  <c:v>4096x4096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -2540,16 +4831,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'C++'!$C$8:$G$8</c:f>
+              <c:f>'20190511_PC'!$F$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0525-4113-AA37-94D34F7F001C}"/>
+              <c16:uniqueId val="{00000003-1609-4F44-89CF-9385D21F232C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2638,7 +4935,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0_ " sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2722,7 +5019,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2828,7 +5125,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$B$4</c:f>
+              <c:f>All!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2849,7 +5146,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>OpenMP!$C$3:$G$3</c:f>
+              <c:f>All!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2872,7 +5169,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenMP!$C$4:$G$4</c:f>
+              <c:f>All!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2896,7 +5193,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1B15-4412-8C20-12D6A8821CFD}"/>
+              <c16:uniqueId val="{00000000-75B2-45CE-8244-F422C68F3458}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2905,7 +5202,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$B$5</c:f>
+              <c:f>All!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2926,7 +5223,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>OpenMP!$C$3:$G$3</c:f>
+              <c:f>All!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -2949,7 +5246,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenMP!$C$5:$G$5</c:f>
+              <c:f>All!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2973,7 +5270,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-1B15-4412-8C20-12D6A8821CFD}"/>
+              <c16:uniqueId val="{00000001-75B2-45CE-8244-F422C68F3458}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2982,7 +5279,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$B$6</c:f>
+              <c:f>All!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3003,7 +5300,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>OpenMP!$C$3:$G$3</c:f>
+              <c:f>All!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3026,7 +5323,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenMP!$C$6:$G$6</c:f>
+              <c:f>All!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3050,7 +5347,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-1B15-4412-8C20-12D6A8821CFD}"/>
+              <c16:uniqueId val="{00000002-75B2-45CE-8244-F422C68F3458}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3059,7 +5356,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$B$7</c:f>
+              <c:f>All!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3080,7 +5377,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>OpenMP!$C$3:$G$3</c:f>
+              <c:f>All!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3103,16 +5400,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenMP!$C$7:$G$7</c:f>
+              <c:f>All!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-1B15-4412-8C20-12D6A8821CFD}"/>
+              <c16:uniqueId val="{00000003-75B2-45CE-8244-F422C68F3458}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3121,7 +5433,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>OpenMP!$B$8</c:f>
+              <c:f>All!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3142,7 +5454,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>OpenMP!$C$3:$G$3</c:f>
+              <c:f>All!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -3165,16 +5477,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>OpenMP!$C$8:$G$8</c:f>
+              <c:f>All!$C$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.48</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-1B15-4412-8C20-12D6A8821CFD}"/>
+              <c16:uniqueId val="{00000004-75B2-45CE-8244-F422C68F3458}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3453,7 +5780,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA!$B$4</c:f>
+              <c:f>All!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3474,22 +5801,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA!$C$3:$G$3</c:f>
+              <c:f>All!$F$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>512x512</c:v>
+                  <c:v>4096x4096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -3497,23 +5815,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA!$C$4:$G$4</c:f>
+              <c:f>All!$F$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>34</c:v>
+                  <c:v>0.63</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3521,7 +5830,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-523A-4153-8192-1BCEFE8C80D7}"/>
+              <c16:uniqueId val="{00000000-D7E7-4E92-AA3B-D5B7F71EAAE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3530,7 +5839,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA!$B$5</c:f>
+              <c:f>All!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3551,22 +5860,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA!$C$3:$G$3</c:f>
+              <c:f>All!$F$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>512x512</c:v>
+                  <c:v>4096x4096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -3574,23 +5874,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA!$C$5:$G$5</c:f>
+              <c:f>All!$F$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>500</c:v>
+                  <c:v>5.35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.35</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -3598,7 +5889,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-523A-4153-8192-1BCEFE8C80D7}"/>
+              <c16:uniqueId val="{00000001-D7E7-4E92-AA3B-D5B7F71EAAE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3607,7 +5898,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA!$B$6</c:f>
+              <c:f>All!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3628,22 +5919,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA!$C$3:$G$3</c:f>
+              <c:f>All!$F$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>512x512</c:v>
+                  <c:v>4096x4096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -3651,23 +5933,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA!$C$6:$G$6</c:f>
+              <c:f>All!$F$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>19.61</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.61</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -3675,7 +5948,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-523A-4153-8192-1BCEFE8C80D7}"/>
+              <c16:uniqueId val="{00000002-D7E7-4E92-AA3B-D5B7F71EAAE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3684,7 +5957,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA!$B$7</c:f>
+              <c:f>All!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3705,22 +5978,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA!$C$3:$G$3</c:f>
+              <c:f>All!$F$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>512x512</c:v>
+                  <c:v>4096x4096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -3728,23 +5992,14 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA!$C$7:$G$7</c:f>
+              <c:f>All!$F$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>76.92</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76.92</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>18.18</c:v>
                 </c:pt>
               </c:numCache>
@@ -3752,7 +6007,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-523A-4153-8192-1BCEFE8C80D7}"/>
+              <c16:uniqueId val="{00000003-D7E7-4E92-AA3B-D5B7F71EAAE4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3761,7 +6016,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA!$B$8</c:f>
+              <c:f>All!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3782,22 +6037,13 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA!$C$3:$G$3</c:f>
+              <c:f>All!$F$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>512x512</c:v>
+                  <c:v>4096x4096</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1024x1024</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2048x2048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -3805,7 +6051,422 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA!$C$8:$G$8</c:f>
+              <c:f>All!$F$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.48</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D7E7-4E92-AA3B-D5B7F71EAAE4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="597509888"/>
+        <c:axId val="597512840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="597509888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597512840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="597512840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="597509888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Generation Per Second</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JavaScript!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JavaScript</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>JavaScript!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JavaScript!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDB3-46FC-9239-FFCEE828D2B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JavaScript!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>JavaScript!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JavaScript!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3814,7 +6475,193 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-523A-4153-8192-1BCEFE8C80D7}"/>
+              <c16:uniqueId val="{00000001-DDB3-46FC-9239-FFCEE828D2B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JavaScript!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenMP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>JavaScript!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JavaScript!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DDB3-46FC-9239-FFCEE828D2B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JavaScript!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>JavaScript!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JavaScript!$C$7:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DDB3-46FC-9239-FFCEE828D2B4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>JavaScript!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CUDA + Optimization</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>JavaScript!$C$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4096x4096</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8192x8192</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>JavaScript!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DDB3-46FC-9239-FFCEE828D2B4}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4011,565 +6858,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>Generation Per Second</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CUDA!$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>JavaScript</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CUDA!$F$3:$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8192x8192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CUDA!$F$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E741-4EF9-AD3E-6AAF5FE7E792}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CUDA!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C++</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CUDA!$F$3:$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8192x8192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CUDA!$F$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>5.35</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E741-4EF9-AD3E-6AAF5FE7E792}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CUDA!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>OpenMP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CUDA!$F$3:$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8192x8192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CUDA!$F$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>19.61</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E741-4EF9-AD3E-6AAF5FE7E792}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CUDA!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CUDA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CUDA!$F$3:$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8192x8192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CUDA!$F$7:$G$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>76.92</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.18</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-E741-4EF9-AD3E-6AAF5FE7E792}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>CUDA!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CUDA + Optimization</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>CUDA!$F$3:$G$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4096x4096</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8192x8192</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>CUDA!$F$8:$G$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E741-4EF9-AD3E-6AAF5FE7E792}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="597509888"/>
-        <c:axId val="597512840"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="597509888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="597512840"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="597512840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="597509888"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -4652,7 +6940,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA_OPT!$B$4</c:f>
+              <c:f>'C++'!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4673,7 +6961,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA_OPT!$C$3:$G$3</c:f>
+              <c:f>'C++'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4696,7 +6984,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA_OPT!$C$4:$G$4</c:f>
+              <c:f>'C++'!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4720,7 +7008,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7BFF-4887-BAE4-64992A57FD3D}"/>
+              <c16:uniqueId val="{00000000-0525-4113-AA37-94D34F7F001C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4729,7 +7017,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA_OPT!$B$5</c:f>
+              <c:f>'C++'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4750,7 +7038,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA_OPT!$C$3:$G$3</c:f>
+              <c:f>'C++'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4773,7 +7061,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA_OPT!$C$5:$G$5</c:f>
+              <c:f>'C++'!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4797,7 +7085,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7BFF-4887-BAE4-64992A57FD3D}"/>
+              <c16:uniqueId val="{00000001-0525-4113-AA37-94D34F7F001C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4806,7 +7094,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA_OPT!$B$6</c:f>
+              <c:f>'C++'!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4827,7 +7115,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA_OPT!$C$3:$G$3</c:f>
+              <c:f>'C++'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4850,31 +7138,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA_OPT!$C$6:$G$6</c:f>
+              <c:f>'C++'!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.61</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7BFF-4887-BAE4-64992A57FD3D}"/>
+              <c16:uniqueId val="{00000002-0525-4113-AA37-94D34F7F001C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4883,7 +7156,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA_OPT!$B$7</c:f>
+              <c:f>'C++'!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4904,7 +7177,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA_OPT!$C$3:$G$3</c:f>
+              <c:f>'C++'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4927,31 +7200,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA_OPT!$C$7:$G$7</c:f>
+              <c:f>'C++'!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>76.92</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.18</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7BFF-4887-BAE4-64992A57FD3D}"/>
+              <c16:uniqueId val="{00000003-0525-4113-AA37-94D34F7F001C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4960,7 +7218,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA_OPT!$B$8</c:f>
+              <c:f>'C++'!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4981,7 +7239,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA_OPT!$C$3:$G$3</c:f>
+              <c:f>'C++'!$C$3:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -5004,31 +7262,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA_OPT!$C$8:$G$8</c:f>
+              <c:f>'C++'!$C$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43.48</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-7BFF-4887-BAE4-64992A57FD3D}"/>
+              <c16:uniqueId val="{00000004-0525-4113-AA37-94D34F7F001C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5307,7 +7550,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA_OPT!$B$4</c:f>
+              <c:f>OpenMP!$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5328,13 +7571,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA_OPT!$F$3:$G$3</c:f>
+              <c:f>OpenMP!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4096x4096</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -5342,14 +7594,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA_OPT!$F$4:$G$4</c:f>
+              <c:f>OpenMP!$C$4:$G$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.63</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5357,7 +7618,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-70CE-41EF-92C3-D0CF96640928}"/>
+              <c16:uniqueId val="{00000000-1B15-4412-8C20-12D6A8821CFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5366,7 +7627,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA_OPT!$B$5</c:f>
+              <c:f>OpenMP!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5387,13 +7648,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA_OPT!$F$3:$G$3</c:f>
+              <c:f>OpenMP!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4096x4096</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -5401,14 +7671,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA_OPT!$F$5:$G$5</c:f>
+              <c:f>OpenMP!$C$5:$G$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5.35</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>1.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -5416,7 +7695,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-70CE-41EF-92C3-D0CF96640928}"/>
+              <c16:uniqueId val="{00000001-1B15-4412-8C20-12D6A8821CFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5425,7 +7704,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA_OPT!$B$6</c:f>
+              <c:f>OpenMP!$B$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5446,13 +7725,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA_OPT!$F$3:$G$3</c:f>
+              <c:f>OpenMP!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4096x4096</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -5460,14 +7748,23 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA_OPT!$F$6:$G$6</c:f>
+              <c:f>OpenMP!$C$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>19.61</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -5475,7 +7772,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-70CE-41EF-92C3-D0CF96640928}"/>
+              <c16:uniqueId val="{00000002-1B15-4412-8C20-12D6A8821CFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5484,7 +7781,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA_OPT!$B$7</c:f>
+              <c:f>OpenMP!$B$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5505,13 +7802,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA_OPT!$F$3:$G$3</c:f>
+              <c:f>OpenMP!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4096x4096</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -5519,22 +7825,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA_OPT!$F$7:$G$7</c:f>
+              <c:f>OpenMP!$C$7:$G$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>76.92</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18.18</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-70CE-41EF-92C3-D0CF96640928}"/>
+              <c16:uniqueId val="{00000003-1B15-4412-8C20-12D6A8821CFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5543,7 +7843,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>CUDA_OPT!$B$8</c:f>
+              <c:f>OpenMP!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5564,13 +7864,22 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>CUDA_OPT!$F$3:$G$3</c:f>
+              <c:f>OpenMP!$C$3:$G$3</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>512x512</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1024x1024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2048x2048</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4096x4096</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="4">
                   <c:v>8192x8192</c:v>
                 </c:pt>
               </c:strCache>
@@ -5578,22 +7887,16 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CUDA_OPT!$F$8:$G$8</c:f>
+              <c:f>OpenMP!$C$8:$G$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43.48</c:v>
-                </c:pt>
+                <c:ptCount val="5"/>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-70CE-41EF-92C3-D0CF96640928}"/>
+              <c16:uniqueId val="{00000004-1B15-4412-8C20-12D6A8821CFD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5682,7 +7985,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0_ " sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5766,7 +8069,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -5791,6 +8094,166 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6653,7 +9116,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7156,7 +9619,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7659,7 +10122,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8162,7 +10625,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8665,7 +11128,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9168,7 +11631,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9671,7 +12134,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10174,7 +12637,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10677,7 +13140,2441 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>192461</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A19301CE-90C2-43BD-BDAE-05A4FA7D439F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182657</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{825D4616-A716-4453-94D6-A8784CB3292D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D985ABB4-C549-41C4-BDED-C43EDB17B06F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933264" y="3742765"/>
+          <a:ext cx="1736912" cy="1131794"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627531</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 折線 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A3C0418-532A-4DDF-AEEC-138849F383EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5154707" y="2969559"/>
+          <a:ext cx="874058" cy="627530"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>192461</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D6B8C1-DBDC-460B-ADF5-E33E654F84ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>618565</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>182657</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC546B91-DF11-4E6F-851D-0C762C2C45C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>212912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形: 角を丸くする 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E92DCC1-1721-43D6-B8CC-3D2F67FF1B62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3925980" y="3784787"/>
+          <a:ext cx="1726827" cy="1145801"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>627531</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矢印: 折線 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31CBF152-E2C5-4C9F-A69A-2DE124E869CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5142381" y="3003177"/>
+          <a:ext cx="869015" cy="635934"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10888,7 +15785,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10931,7 +15828,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10974,7 +15871,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11017,7 +15914,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11228,7 +16125,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11704,7 +16601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
@@ -12077,7 +16974,797 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11134EA9-B1C6-4064-8468-E94463CDAE55}">
+  <dimension ref="B2:G8"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3" s="13"/>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>500</v>
+      </c>
+      <c r="D5" s="1">
+        <v>83</v>
+      </c>
+      <c r="E5" s="1">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.35</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>250</v>
+      </c>
+      <c r="E6" s="1">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1">
+        <v>19.61</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>250</v>
+      </c>
+      <c r="F7" s="1">
+        <v>76.92</v>
+      </c>
+      <c r="G7" s="1">
+        <v>18.18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="14">
+        <v>125</v>
+      </c>
+      <c r="G8" s="14">
+        <v>43.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCEFD5D-8780-469F-B5F5-A174A60768BB}">
+  <dimension ref="B2:I7"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="13"/>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>250</v>
+      </c>
+      <c r="D4" s="1">
+        <v>55</v>
+      </c>
+      <c r="E4" s="1">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>166</v>
+      </c>
+      <c r="D5" s="1">
+        <v>76</v>
+      </c>
+      <c r="E5" s="1">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>250</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>32</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>142</v>
+      </c>
+      <c r="F7" s="1">
+        <v>36</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89263E6-CE01-48F5-884D-E8873716D3AB}">
+  <dimension ref="B2:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" s="13"/>
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>500</v>
+      </c>
+      <c r="D4" s="1">
+        <v>90</v>
+      </c>
+      <c r="E4" s="1">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1">
+        <v>111</v>
+      </c>
+      <c r="F6" s="1">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="1">
+        <v>166</v>
+      </c>
+      <c r="G7" s="1">
+        <v>43</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF158EE-859E-49E9-92B5-0F1E8F93E777}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+      <c r="C3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="I4" s="1">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="L4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20.8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I5" s="1">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D6" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>27</v>
+      </c>
+      <c r="J6" s="1">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>29.4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="I7" s="1">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="1">
+        <v>12</v>
+      </c>
+      <c r="I8" s="1">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1">
+        <v>32</v>
+      </c>
+      <c r="L8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>150</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9.35</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="1">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45</v>
+      </c>
+      <c r="J9" s="1">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B13" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="B16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="B17" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="75" x14ac:dyDescent="0.4">
+      <c r="B18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02CBC9F-88E8-46F5-9577-64BB67EB3215}">
   <dimension ref="B2:G8"/>
   <sheetViews>
@@ -12223,7 +17910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5774C478-EA22-4B2E-88B4-63E8B1B67B74}">
   <dimension ref="B2:G8"/>
   <sheetViews>
@@ -12329,7 +18016,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A5165A-6CD6-47B9-9209-EFAF0AB4080A}">
   <dimension ref="B2:G8"/>
   <sheetViews>
@@ -12445,7 +18132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{825F3427-F7D2-475D-BBE9-58473BFED280}">
   <dimension ref="B2:G8"/>
   <sheetViews>
@@ -12571,7 +18258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EF2D61-2D25-46A9-908C-8E95DCD94B42}">
   <dimension ref="B2:G8"/>
   <sheetViews>
@@ -12705,150 +18392,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11134EA9-B1C6-4064-8468-E94463CDAE55}">
-  <dimension ref="B2:G8"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="10.375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B3" s="13"/>
-      <c r="C3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.63</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>500</v>
-      </c>
-      <c r="D5" s="1">
-        <v>83</v>
-      </c>
-      <c r="E5" s="1">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5.35</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B6" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>250</v>
-      </c>
-      <c r="E6" s="1">
-        <v>66</v>
-      </c>
-      <c r="F6" s="1">
-        <v>19.61</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B7" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E7" s="1">
-        <v>250</v>
-      </c>
-      <c r="F7" s="1">
-        <v>76.92</v>
-      </c>
-      <c r="G7" s="1">
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B8" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="14">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="14">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="14">
-        <v>125</v>
-      </c>
-      <c r="G8" s="14">
-        <v>43.48</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/00_doc/data.xlsx
+++ b/00_doc/data.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FB961B-1CEF-41E9-B9B5-D340C79E4E86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BFC11E-56A8-44DF-91DC-24CBD5BB884C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,23 @@
     <sheet name="CUDA" sheetId="12" r:id="rId9"/>
     <sheet name="CUDA_OPT" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="37">
   <si>
     <t>JavaScript</t>
     <phoneticPr fontId="1"/>
@@ -207,6 +213,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -407,11 +416,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -439,6 +457,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -17122,10 +17148,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCEFD5D-8780-469F-B5F5-A174A60768BB}">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:Z7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="V7" sqref="V7:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17135,12 +17161,12 @@
     <col min="4" max="7" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B3" s="13"/>
       <c r="C3" s="11" t="s">
         <v>6</v>
@@ -17157,8 +17183,23 @@
       <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="P3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -17177,8 +17218,31 @@
       <c r="G4" s="1">
         <v>0.4</v>
       </c>
+      <c r="O4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="25">
+        <f>C4/C$4</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="25">
+        <f t="shared" ref="Q4:T4" si="0">D4/D$4</f>
+        <v>1</v>
+      </c>
+      <c r="R4" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S4" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
@@ -17197,8 +17261,31 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
+      <c r="O5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="25">
+        <f t="shared" ref="P5:P7" si="1">C5/C$4</f>
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="Q5" s="25">
+        <f t="shared" ref="Q5:Q7" si="2">D5/D$4</f>
+        <v>1.3818181818181818</v>
+      </c>
+      <c r="R5" s="25">
+        <f t="shared" ref="R5:R7" si="3">E5/E$4</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="S5" s="25">
+        <f t="shared" ref="S5:S7" si="4">F5/F$4</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="T5" s="25">
+        <f t="shared" ref="T5:T7" si="5">G5/G$4</f>
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -17220,8 +17307,31 @@
       <c r="I6" t="s">
         <v>15</v>
       </c>
+      <c r="O6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="25">
+        <f t="shared" si="2"/>
+        <v>1.8181818181818181</v>
+      </c>
+      <c r="R6" s="25">
+        <f t="shared" si="3"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="S6" s="25">
+        <f t="shared" si="4"/>
+        <v>3.9047619047619042</v>
+      </c>
+      <c r="T6" s="25">
+        <f t="shared" si="5"/>
+        <v>4.7499999999999991</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
@@ -17242,6 +17352,49 @@
       </c>
       <c r="I7" t="s">
         <v>36</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="25">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q7" s="25">
+        <f t="shared" si="2"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="R7" s="25">
+        <f t="shared" si="3"/>
+        <v>11.833333333333334</v>
+      </c>
+      <c r="S7" s="25">
+        <f t="shared" si="4"/>
+        <v>17.142857142857142</v>
+      </c>
+      <c r="T7" s="25">
+        <f t="shared" si="5"/>
+        <v>21.749999999999996</v>
+      </c>
+      <c r="V7" s="25">
+        <f>C7/C$6</f>
+        <v>4</v>
+      </c>
+      <c r="W7" s="25">
+        <f t="shared" ref="W7:Y7" si="6">D7/D$6</f>
+        <v>5</v>
+      </c>
+      <c r="X7" s="25">
+        <f t="shared" si="6"/>
+        <v>4.4375</v>
+      </c>
+      <c r="Y7" s="25">
+        <f t="shared" si="6"/>
+        <v>4.3902439024390247</v>
+      </c>
+      <c r="Z7" s="25">
+        <f>G7/G$6</f>
+        <v>4.5789473684210522</v>
       </c>
     </row>
   </sheetData>
@@ -17254,10 +17407,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89263E6-CE01-48F5-884D-E8873716D3AB}">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:Z7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7:Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17267,12 +17420,12 @@
     <col min="4" max="7" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B3" s="13"/>
       <c r="C3" s="11" t="s">
         <v>6</v>
@@ -17289,8 +17442,23 @@
       <c r="G3" s="11" t="s">
         <v>9</v>
       </c>
+      <c r="P3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
@@ -17309,8 +17477,32 @@
       <c r="G4" s="1">
         <v>1.3</v>
       </c>
+      <c r="O4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="25">
+        <f>C4/C$4</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="25">
+        <f t="shared" ref="Q4:T4" si="0">D4/D$4</f>
+        <v>1</v>
+      </c>
+      <c r="R4" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="S4" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="T4" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U4" s="25"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B5" s="12" t="s">
         <v>2</v>
       </c>
@@ -17329,8 +17521,31 @@
       <c r="G5" s="1">
         <v>4.5999999999999996</v>
       </c>
+      <c r="O5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="25">
+        <f t="shared" ref="P5:P7" si="1">C5/C$4</f>
+        <v>2</v>
+      </c>
+      <c r="Q5" s="25">
+        <f t="shared" ref="Q5:Q7" si="2">D5/D$4</f>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="R5" s="25">
+        <f t="shared" ref="R5:R7" si="3">E5/E$4</f>
+        <v>2.2916666666666665</v>
+      </c>
+      <c r="S5" s="25">
+        <f t="shared" ref="S5:S7" si="4">F5/F$4</f>
+        <v>2.3636363636363638</v>
+      </c>
+      <c r="T5" s="25">
+        <f t="shared" ref="T5:T7" si="5">G5/G$4</f>
+        <v>3.5384615384615379</v>
+      </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B6" s="12" t="s">
         <v>3</v>
       </c>
@@ -17352,8 +17567,31 @@
       <c r="I6" t="s">
         <v>15</v>
       </c>
+      <c r="O6" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P6" s="25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q6" s="25">
+        <f t="shared" si="2"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="R6" s="25">
+        <f t="shared" si="3"/>
+        <v>4.625</v>
+      </c>
+      <c r="S6" s="25">
+        <f t="shared" si="4"/>
+        <v>4.9090909090909092</v>
+      </c>
+      <c r="T6" s="25">
+        <f t="shared" si="5"/>
+        <v>6.1538461538461533</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
@@ -17374,6 +17612,49 @@
       </c>
       <c r="I7" t="s">
         <v>36</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q7" s="25">
+        <f t="shared" si="2"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="R7" s="25">
+        <f t="shared" si="3"/>
+        <v>41.666666666666664</v>
+      </c>
+      <c r="S7" s="25">
+        <f t="shared" si="4"/>
+        <v>30.181818181818183</v>
+      </c>
+      <c r="T7" s="25">
+        <f t="shared" si="5"/>
+        <v>33.076923076923073</v>
+      </c>
+      <c r="V7" s="25">
+        <f>C7/C$6</f>
+        <v>1</v>
+      </c>
+      <c r="W7" s="25">
+        <f t="shared" ref="W7:Y7" si="6">D7/D$6</f>
+        <v>2</v>
+      </c>
+      <c r="X7" s="25">
+        <f t="shared" si="6"/>
+        <v>9.0090090090090094</v>
+      </c>
+      <c r="Y7" s="25">
+        <f t="shared" si="6"/>
+        <v>6.1481481481481479</v>
+      </c>
+      <c r="Z7" s="25">
+        <f>G7/G$6</f>
+        <v>5.375</v>
       </c>
     </row>
   </sheetData>
@@ -17386,10 +17667,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF158EE-859E-49E9-92B5-0F1E8F93E777}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -17399,32 +17680,36 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B3" s="1"/>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="27"/>
       <c r="C3" s="11" t="s">
         <v>13</v>
       </c>
@@ -17434,18 +17719,21 @@
       <c r="E3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="11" t="s">
+      <c r="G3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -17461,23 +17749,26 @@
       <c r="E4" s="1">
         <v>2.8</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>7.6</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <v>13</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <v>8.4</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -17493,23 +17784,26 @@
       <c r="E5" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <v>17</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <v>4.03</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -17525,23 +17819,26 @@
       <c r="E6" s="1">
         <v>7.3</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>9.6</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <v>27</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <v>33</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -17557,23 +17854,26 @@
       <c r="E7" s="1">
         <v>7.3</v>
       </c>
-      <c r="G7" s="23" t="s">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>6.4</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <v>22</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>31</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -17589,23 +17889,26 @@
       <c r="E8" s="1">
         <v>7.3</v>
       </c>
-      <c r="G8" s="23" t="s">
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>12</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <v>36</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>32</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -17621,28 +17924,31 @@
       <c r="E9" s="1">
         <v>9.35</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>38</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <v>45</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>33</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="11" t="s">
         <v>13</v>
@@ -17653,17 +17959,17 @@
       <c r="E12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="24" t="s">
+      <c r="I12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="J12" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
@@ -17677,7 +17983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" s="12" t="s">
         <v>13</v>
       </c>
@@ -17690,8 +17996,9 @@
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
@@ -17704,8 +18011,9 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B16" s="23" t="s">
         <v>20</v>
       </c>
@@ -17718,8 +18026,9 @@
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="2:5" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B17" s="23" t="s">
         <v>30</v>
       </c>
@@ -17732,8 +18041,9 @@
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="2:5" ht="75" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" ht="75" x14ac:dyDescent="0.4">
       <c r="B18" s="23" t="s">
         <v>31</v>
       </c>
@@ -17746,18 +18056,23 @@
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F18" s="28"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="C21" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:H3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
